--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkata.jayanti\IdeaProjects\SampleTest\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkata.jayanti\IdeaProjects\SampleTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>abcde</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>krishna</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -430,9 +436,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -447,9 +459,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
